--- a/ThesisData/output/fgbl_announcements_stat.xlsx
+++ b/ThesisData/output/fgbl_announcements_stat.xlsx
@@ -477,13 +477,13 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.03635599746893816</v>
+        <v>0.1060579828356883</v>
       </c>
       <c r="E2">
-        <v>0.05199316812673457</v>
+        <v>0.2098744004587479</v>
       </c>
       <c r="F2">
-        <v>0.4989304070883763</v>
+        <v>0.1841535432926422</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0.4800930249481711</v>
+        <v>0.5257115046245979</v>
       </c>
       <c r="E3">
-        <v>0.4796660493225187</v>
+        <v>0.5521715976014016</v>
       </c>
       <c r="F3">
-        <v>0.9076985694365185</v>
+        <v>0.863903320853156</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -517,13 +517,13 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.004404696888584063</v>
+        <v>0.2269096954953032</v>
       </c>
       <c r="E4">
-        <v>-0.204319611667163</v>
+        <v>0.4491329609791932</v>
       </c>
       <c r="F4">
-        <v>0.7115359896671514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,13 +537,13 @@
         <v>241</v>
       </c>
       <c r="D5">
-        <v>0.1355310187778409</v>
+        <v>0.2507116742946722</v>
       </c>
       <c r="E5">
-        <v>0.1656449639182286</v>
+        <v>0.3445457345191699</v>
       </c>
       <c r="F5">
-        <v>0.6611518076313727</v>
+        <v>0.5941651397226838</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,13 +557,13 @@
         <v>37</v>
       </c>
       <c r="D6">
-        <v>0.1185817870932818</v>
+        <v>0.2497033435456695</v>
       </c>
       <c r="E6">
-        <v>0.3332395776914956</v>
+        <v>0.6211223257768826</v>
       </c>
       <c r="F6">
-        <v>0.7336149106254064</v>
+        <v>0.6302434217587324</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -577,13 +577,13 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>-0.00476692388894238</v>
+        <v>0.09100679477754352</v>
       </c>
       <c r="E7">
-        <v>0.01512257040169076</v>
+        <v>0.1322881038858737</v>
       </c>
       <c r="F7">
-        <v>0.577159492622207</v>
+        <v>0.9059275295124692</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,13 +597,13 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>0.03755963099818278</v>
+        <v>0.05379139958613055</v>
       </c>
       <c r="E8">
-        <v>-0.0611669481747873</v>
+        <v>0.0853604963672745</v>
       </c>
       <c r="F8">
-        <v>0.2821974067772116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.03093792457656608</v>
+        <v>0.1007474296530028</v>
       </c>
       <c r="E9">
-        <v>0.07219120595215216</v>
+        <v>0.1323748351993976</v>
       </c>
       <c r="F9">
-        <v>0.5132875729809345</v>
+        <v>0.1176378875462932</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -637,13 +637,13 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <v>0.126028229352646</v>
+        <v>0.201519929683999</v>
       </c>
       <c r="E10">
-        <v>0.1269196765903152</v>
+        <v>0.2318872633403544</v>
       </c>
       <c r="F10">
-        <v>0.5655251969155949</v>
+        <v>0.617829656649348</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>0.1774124932254544</v>
+        <v>0.2350631375161907</v>
       </c>
       <c r="E11">
-        <v>0.2189061772233916</v>
+        <v>0.2610587746687676</v>
       </c>
       <c r="F11">
-        <v>0.579564769206791</v>
+        <v>0.4329073271576331</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -737,13 +737,13 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>0.07046247652865097</v>
+        <v>0.205141630736422</v>
       </c>
       <c r="E15">
-        <v>0.08108674281791968</v>
+        <v>0.3626649014229366</v>
       </c>
       <c r="F15">
-        <v>0.7635411435037942</v>
+        <v>0.9413985616468207</v>
       </c>
     </row>
   </sheetData>
